--- a/Final /Checklist_GroupXX-1.xlsx
+++ b/Final /Checklist_GroupXX-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ducle/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Coding/CS162/Final project/Final /"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5460" yWindow="460" windowWidth="20140" windowHeight="14680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -918,112 +918,1673 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>Assign_one_student</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View_list_of_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_absent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string,ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Is_ok_check_in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string,string,string,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>SMS.cpp</t>
+  </si>
+  <si>
+    <t>user.cpp</t>
+  </si>
+  <si>
+    <t>course.cpp</t>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_one_line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(ostream &amp;); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add_tail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Course x); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add_a_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Delete_node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(string s); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Delete_a_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unsigned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> input[], </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>uint64_t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> size_of_input);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Padding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unsigned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> digest[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Compression</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>unsigned</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> segment[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0086B3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">]); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View_checkin_of_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_present</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(string,ostream &amp;); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Edit_score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>View_score_of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(string); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Export_score_of_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Import_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Import_student_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Import_class_from_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Assign_one_class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Show_list_of_student_in_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <t>CSVhelper.cpp</t>
+  </si>
+  <si>
+    <t>UI.cpp</t>
+  </si>
+  <si>
+    <t>MD5.cpp</t>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Change_password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string username,string password)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_one_line_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add_to_last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Score s);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Add_score_to_last</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_list_one_line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Print_list_one_line_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(ostream &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <t>score.cpp</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Is_student_in_course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string,string,string,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>oid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CSV_reform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Write_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Student_list &amp;,string); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Write_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Course_list &amp;,string); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Write_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(Score_list &amp;,string); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Get_details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string,string,User &amp;);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Get_details</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(string,string,string,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFA71D5D"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,Course &amp;); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Import_course_from_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Import_score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Import_score_from_file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Show_list_of_student_in_class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(); </t>
+    </r>
+  </si>
+  <si>
+    <t>Tạo test</t>
+  </si>
+  <si>
+    <t>16CTT.csv</t>
+  </si>
+  <si>
+    <t>15CTT.csv</t>
+  </si>
+  <si>
+    <t>course.csv</t>
+  </si>
+  <si>
+    <t>CS161_2016_1_Midterm</t>
+  </si>
+  <si>
+    <t>CS161_2016_1_Lab</t>
+  </si>
+  <si>
+    <t>CS161_2016_1_Final</t>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>Check_in</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Assign_one_student</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>View_list_of_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_absent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string,ostream &amp;);</t>
+  </si>
+  <si>
+    <r>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF795DA3"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Login(string,string)</t>
     </r>
   </si>
   <si>
@@ -1046,1638 +2607,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Is_ok_check_in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string,string,string,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <t>SMS.cpp</t>
-  </si>
-  <si>
-    <t>user.cpp</t>
-  </si>
-  <si>
-    <t>course.cpp</t>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_one_line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(ostream &amp;); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Add_tail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(Course x); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Add_a_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Delete_node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(string s); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Delete_a_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Process</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Update</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>unsigned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> input[], </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0086B3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>uint64_t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> size_of_input);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Padding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>unsigned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> digest[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0086B3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Compression</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>unsigned</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>char</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> segment[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0086B3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">]); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>View_checkin_of_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_present</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(string,ostream &amp;); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Edit_score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>View_score_of</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(string); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Export_score_of_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(ostream &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_student_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_course_from_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_class_from_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Assign_one_class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Show_list_of_student_in_class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Show_list_of_student_in_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_score_from_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <t>CSVhelper.cpp</t>
-  </si>
-  <si>
-    <t>UI.cpp</t>
-  </si>
-  <si>
-    <t>MD5.cpp</t>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Change_password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string username,string password)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(ostream &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_one_line_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(ostream &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Add_to_last</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>const</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> Score s);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Add_score_to_last</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_list</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(ostream &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_list_one_line</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(ostream &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Print_list_one_line_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(ostream &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <t>score.cpp</t>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Is_student_in_course</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string,string,string,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>oid</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CSV_reform</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Write_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(Student_list &amp;,string); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Write_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(Course_list &amp;,string); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Write_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(Score_list &amp;,string); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Get_details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string,string,User &amp;);</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Get_details</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(string,string,string,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFA71D5D"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,Course &amp;); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_course_from_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Import_score_from_file</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF795DA3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Show_list_of_student_in_class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF24292E"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(); </t>
+      <t>Is_ok_check_in(string,string,string,int);</t>
     </r>
   </si>
 </sst>
@@ -2813,7 +2743,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2834,6 +2764,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3022,7 +2955,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Student!$A$3:$D$3</c:f>
+              <c:f>Student!$A$4:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -3042,7 +2975,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Student!$A$4:$D$4</c:f>
+              <c:f>Student!$A$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3053,10 +2986,10 @@
                   <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3726,7 +3659,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>778934</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>97367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4022,7 +3955,7 @@
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4078,7 +4011,9 @@
       <c r="D3" s="2">
         <v>0.25</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>-0.125</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -4326,9 +4261,7 @@
         <v>38</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="2">
-        <v>0.25</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4395,7 +4328,7 @@
       </c>
       <c r="D26" s="2">
         <f>SUM(D2:D25)</f>
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="E26" s="4"/>
     </row>
@@ -4416,17 +4349,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
     <col min="4" max="4" width="48.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4446,464 +4379,461 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>1651044</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1651005</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1651052</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1651034</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B5" s="7">
         <v>0.24</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.24</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="9" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="9" t="s">
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="10" t="s">
+      <c r="B20" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="2" t="s">
-        <v>99</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="B24" s="2"/>
-      <c r="D24" s="9" t="s">
-        <v>80</v>
+      <c r="C24" s="2"/>
+      <c r="D24" s="11" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="2"/>
       <c r="D25" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="D26" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="D27" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="D26" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="10" t="s">
-        <v>100</v>
+      <c r="A28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="D29" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="8"/>
+        <v>108</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>93</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="8"/>
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>70</v>
+      <c r="A43" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="8"/>
+        <v>114</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="8"/>
+      <c r="B45" s="8"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="8"/>
+      <c r="B51" s="8"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="9"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
